--- a/va_facility_data_2025-02-20/Parsons VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Parsons%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Parsons VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Parsons%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R52d2dbeb16994e8cb1b7cae4c5bb5c37"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rded0a429726742e9979edc415ccad6d7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7da33d7ada4e42b2ba03b655eebb5d9c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6dfd2f4ec1b74f45b363d81e1408e62e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R08eabe038f9744628be3b8ae4979162c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rba565cc2f46b433b9d61e4430aa7ae46"/>
   </x:sheets>
 </x:workbook>
 </file>
